--- a/analysis/k-alpha_analysis.xlsx
+++ b/analysis/k-alpha_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemel\Documents\Université 4\Stage II\uqar\llms4apiclassification\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8776DC-D53F-4EEB-9C4B-DB8199785338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346D26E4-044C-4D29-BDE0-A3B851E00FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27075" yWindow="240" windowWidth="27255" windowHeight="15120" xr2:uid="{BBDD0A3C-72DF-4818-8762-E492BB1A4466}"/>
+    <workbookView xWindow="13980" yWindow="-11352" windowWidth="21144" windowHeight="12696" xr2:uid="{BBDD0A3C-72DF-4818-8762-E492BB1A4466}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="2" r:id="rId1"/>
@@ -85,24 +85,12 @@
     <t>Mistral–Large–2</t>
   </si>
   <si>
-    <t>Qwen2</t>
-  </si>
-  <si>
-    <t>Phi–3</t>
-  </si>
-  <si>
-    <t>DeepSeek–V2</t>
-  </si>
-  <si>
     <t>GPT–4o–Mini</t>
   </si>
   <si>
     <t>Gemini–1.5–Flash</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeQwen1.5 </t>
-  </si>
-  <si>
     <t>DeepSeek–Coder–V2</t>
   </si>
   <si>
@@ -134,6 +122,18 @@
   </si>
   <si>
     <t>Poor Agreement (&lt;= 0.67)</t>
+  </si>
+  <si>
+    <t>Qwen2.5</t>
+  </si>
+  <si>
+    <t>Phi–3.5-MoE</t>
+  </si>
+  <si>
+    <t>DeepSeek–V2.5</t>
+  </si>
+  <si>
+    <t>Qwen2.5-Coder</t>
   </si>
 </sst>
 </file>
@@ -143,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +158,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -283,50 +290,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +345,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,14 +357,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -368,14 +378,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -718,702 +728,702 @@
   <dimension ref="C3:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
+    <row r="3" spans="3:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+      <c r="L4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.96790835485023496</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.97234163866266998</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.95835627198753903</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.90980692722331102</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.83470997765075705</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.93463484631070104</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f>AVERAGE(D5:I5)</f>
         <v>0.92962633611420209</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <f>_xlfn.STDEV.P(D5:I5)</f>
         <v>4.750882109800441E-2</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f>MIN(D5:I5)</f>
         <v>0.83470997765075705</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <f>MAX(D5:I5)</f>
         <v>0.97234163866266998</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" ref="J6:J18" si="0">AVERAGE(D6:I6)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <f t="shared" ref="K6:K18" si="1">_xlfn.STDEV.P(D6:I6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <f t="shared" ref="L6:L18" si="2">MIN(D6:I6)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <f t="shared" ref="M6:M18" si="3">MAX(D6:I6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.98059679157692203</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.983519354551457</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.97773826398382901</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.56780835460490098</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.42417704985397497</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.92696459677000198</v>
-      </c>
-      <c r="J8" s="3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.96814447994913999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.99128710279809296</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.98742405139691702</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.90921673254614499</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.96405734931158604</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.97191191355858997</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0.81013406855684755</v>
-      </c>
-      <c r="K8" s="3">
+        <v>0.96534027159341174</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>0.22676901166696517</v>
-      </c>
-      <c r="L8" s="3">
+        <v>2.6967508126651333E-2</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>0.42417704985397497</v>
-      </c>
-      <c r="M8" s="3">
+        <v>0.90921673254614499</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>0.983519354551457</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
+        <v>0.99128710279809296</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.97062177959715601</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.96606612359021904</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.96516822279459102</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.682462698282568</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.54077694733065096</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.95832997433726996</v>
-      </c>
-      <c r="J10" s="3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.976944291886506</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.98739541691242305</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.976744537535706</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.85584819736890605</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.74888927049609499</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.96456310679611601</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>0.84723762432207594</v>
-      </c>
-      <c r="K10" s="3">
+        <v>0.91839747016595874</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>0.17159153101314731</v>
-      </c>
-      <c r="L10" s="3">
+        <v>8.79104985650003E-2</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>0.54077694733065096</v>
-      </c>
-      <c r="M10" s="3">
+        <v>0.74888927049609499</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>0.97062177959715601</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3">
+        <v>0.98739541691242305</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.94404287159422395</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.96612026258264405</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.96085593153619697</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0.88235720327702005</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>0.93589903281298903</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0.95548877324966097</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>0.94079401250878913</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>2.8015507955019756E-2</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <f t="shared" si="2"/>
         <v>0.88235720327702005</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <f t="shared" si="3"/>
         <v>0.96612026258264405</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4">
         <v>0.98060204266878204</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.98063784378733099</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.99224789277371195</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>0.92532519713146399</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>0.94130322198794003</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>0.94777055115998299</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>0.96131445825153528</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <f t="shared" si="1"/>
         <v>2.4431521390156048E-2</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f t="shared" si="2"/>
         <v>0.92532519713146399</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f t="shared" si="3"/>
         <v>0.99224789277371195</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2.45241275672065E-2</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-1.96209859240754E-2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.60665080213092604</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.135866536639732</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.28535323949319602</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.55225487120266403</v>
-      </c>
-      <c r="J13" s="3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.82146935866570403</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.89991292594583505</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.89864448034210698</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.77626142696351597</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.83963421002098704</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.88511808351199295</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>0.26417143185160824</v>
-      </c>
-      <c r="K13" s="3">
+        <v>0.85350674757502365</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.24329816037230809</v>
-      </c>
-      <c r="L13" s="3">
+        <v>4.5416417759707936E-2</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-1.96209859240754E-2</v>
-      </c>
-      <c r="M13" s="3">
+        <v>0.77626142696351597</v>
+      </c>
+      <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.60665080213092604</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3">
+        <v>0.89991292594583505</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.96771163117224002</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0.968930888727351</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0.97183693597712295</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>0.71807180789408898</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>0.38082871184453698</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.95923043535313701</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>0.82776840182807954</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
         <v>0.21959712852576208</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <f t="shared" si="2"/>
         <v>0.38082871184453698</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <f t="shared" si="3"/>
         <v>0.97183693597712295</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
         <v>0.32483597308704898</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>0.25080232436692301</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>0.140166150606333</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0.81706230782005596</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>0.3832166889700902</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
         <v>0.25895822883937236</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <f t="shared" si="2"/>
         <v>0.140166150606333</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <f t="shared" si="3"/>
         <v>0.81706230782005596</v>
       </c>
     </row>
-    <row r="18" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="7">
+    <row r="18" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="6">
         <v>0.63585751341974295</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>0</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>-8.6730268863832705E-4</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>0.42801482036223099</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <f t="shared" si="0"/>
         <v>0.26575125777333392</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <f t="shared" si="1"/>
         <v>0.27614185304095484</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f t="shared" si="2"/>
         <v>-8.6730268863832705E-4</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <f t="shared" si="3"/>
         <v>0.63585751341974295</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f>AVERAGE(D5:D18)</f>
-        <v>0.89418250900243312</v>
-      </c>
-      <c r="E19" s="3">
+        <v>0.96607482098062081</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" ref="E19:I19" si="4">AVERAGE(E5:E18)</f>
-        <v>0.89254501145250875</v>
-      </c>
-      <c r="F19" s="3">
+        <v>0.97878418903784981</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="4"/>
-        <v>0.87642675443774687</v>
-      </c>
-      <c r="G19" s="3">
+        <v>0.90052335292739183</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="4"/>
-        <v>0.71946436067285779</v>
-      </c>
-      <c r="H19" s="3">
+        <v>0.80197784405509831</v>
+      </c>
+      <c r="H19" s="2">
         <f t="shared" si="4"/>
-        <v>0.65248823299167225</v>
-      </c>
-      <c r="I19" s="4">
+        <v>0.75266312477250663</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="4"/>
-        <v>0.89141079832612158</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="14" t="s">
+        <v>0.91884248843731897</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <f>_xlfn.STDEV.P(D5:D18)</f>
-        <v>0.2755493488282611</v>
-      </c>
-      <c r="E20" s="7">
+        <v>4.8933468432439904E-2</v>
+      </c>
+      <c r="E20" s="6">
         <f t="shared" ref="E20:I20" si="5">_xlfn.STDEV.P(E5:E18)</f>
-        <v>0.28877338688541904</v>
-      </c>
-      <c r="F20" s="7">
+        <v>2.7886131826019026E-2</v>
+      </c>
+      <c r="F20" s="6">
         <f t="shared" si="5"/>
-        <v>0.20577879144365971</v>
-      </c>
-      <c r="G20" s="7">
+        <v>0.19112923429062187</v>
+      </c>
+      <c r="G20" s="6">
         <f t="shared" si="5"/>
-        <v>0.33815406216608618</v>
-      </c>
-      <c r="H20" s="7">
+        <v>0.29257881237907801</v>
+      </c>
+      <c r="H20" s="6">
         <f t="shared" si="5"/>
-        <v>0.35545615709984013</v>
-      </c>
-      <c r="I20" s="8">
+        <v>0.33444345257953495</v>
+      </c>
+      <c r="I20" s="7">
         <f t="shared" si="5"/>
-        <v>0.17190961614832712</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+        <v>0.14498969309915921</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25" s="18"/>
     </row>
@@ -1426,22 +1436,22 @@
     <mergeCell ref="C25:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:I18">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="between">
-      <formula>0</formula>
-      <formula>0.67</formula>
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="UND">
+      <formula>NOT(ISERROR(SEARCH("UND",D5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>0.8</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="UND">
-      <formula>NOT(ISERROR(SEARCH("UND",D5)))</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+      <formula>0</formula>
+      <formula>0.67</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
